--- a/DEPORTES.xlsx
+++ b/DEPORTES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 GITHUB RESPALDO\PAPAPUMUKY1 GITHUB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 GITHUB RESPALDO\PAPAPUMUKY1 GITHUB\PAPAPUMUKY1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{100F9997-C0BE-468B-BA13-99E864C47513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C6A7F4-ACAD-4317-BB4E-3A9414276D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t>#EXTM3U</t>
   </si>
@@ -89,12 +89,6 @@
     <t>http://217.174.225.146/hls/ch004_720/index.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://www.lyngsat.com/logo/tv/tt/turkmenistan-sport-tm.png", Türkmenistan Sport (406p) [Not 24/7]</t>
-  </si>
-  <si>
-    <t>https://alpha.tv.online.tm/hls/ch004.m3u8</t>
-  </si>
-  <si>
     <t>#EXTINF:0 type="stream" channelId="-1" group="Azerbaijan" logo="https://i.imgur.com/fM9FOrZ.png", Idman</t>
   </si>
   <si>
@@ -137,12 +131,6 @@
     <t>https://autopilot.catcast.tv/content/37909/index.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/hWo7Ba4.png", Sony Sports Ten 1 (1080p)</t>
-  </si>
-  <si>
-    <t>https://dai.google.com/linear/hls/event/wG75n5U8RrOKiFzaWObXbA/master.m3u8</t>
-  </si>
-  <si>
     <t>#EXTINF:0 type="stream" channelId="3013" name="Sport Italia" group="Int. Europa" logo="https://graph.facebook.com/sportitaliatv/picture?width=200&amp;height=200", Sport Italia</t>
   </si>
   <si>
@@ -254,12 +242,6 @@
     <t>https://service-stitcher.clusters.pluto.tv/stitch/hls/channel/5de94dacb394a300099fa22a/master.m3u8?advertisingId=&amp;appName=web&amp;appStoreUrl=&amp;appVersion=DNT&amp;app_name=&amp;architecture=&amp;buildVersion=&amp;deviceDNT=0&amp;deviceId=5de94dacb394a300099fa22a&amp;deviceLat=&amp;deviceLon=&amp;deviceMake=web&amp;deviceModel=web&amp;deviceType=web&amp;deviceVersion=DNT&amp;includeExtendedEvents=false&amp;marketingRegion=US&amp;serverSideAds=false&amp;sid=713&amp;terminate=false&amp;userId=</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" group="Austria" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ATAJ0500433A_20230208T012922SQUARE.png_20230208012923.png", Sportdigital Free</t>
-  </si>
-  <si>
-    <t>https://i.mjh.nz/SamsungTVPlus/ATAJ0500433A.m3u8</t>
-  </si>
-  <si>
     <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/5WNBFmp.png", WAPA-DT2 (WAPA Deportes) (1080p)</t>
   </si>
   <si>
@@ -284,30 +266,12 @@
     <t>https://stream.ads.ottera.tv/playlist.m3u8?network_id=3010</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" group="United States", SportsTVPlus</t>
-  </si>
-  <si>
-    <t>https://e46fa4a445464f8a9150fa7d510eb85c.mediatailor.us-west-2.amazonaws.com/v1/master/2d2d0d97b0e548f025b2598a69b55bf30337aa0e/npp/XSJFWT5YF4UTW38VBLGF/hls3/now_-1m_15s/m.m3u8</t>
-  </si>
-  <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" group="Austria" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ATBD2600009FE_20230913T030454SQUARE.png_20230913030455.png", More than Sports TV</t>
-  </si>
-  <si>
-    <t>https://i.mjh.nz/SamsungTVPlus/ATBD2600009FE.m3u8</t>
-  </si>
-  <si>
     <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/SLrjImc.png", More Than Sports TV (1080p)</t>
   </si>
   <si>
     <t>https://mts1.iptv-playoutcenter.de/mts/mts-web/playlist.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" group="Switzerland" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/CHBA22000080G_20230628T040504SQUARE.png_20230628040505.png", Tennis Channel</t>
-  </si>
-  <si>
-    <t>https://i.mjh.nz/SamsungTVPlus/CHBA22000080G.m3u8</t>
-  </si>
-  <si>
     <t>#EXTINF:0 type="stream" channelId="-1" group="United States" logo="https://i.imgur.com/GT0Yi2T.png", Swerve Sports (1080p)</t>
   </si>
   <si>
@@ -384,6 +348,24 @@
   </si>
   <si>
     <t>https://edge02.odtv.az/o1/ictimai/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1320" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBC4100001NZ_20221109T010943SQUARE.png_20221109010943.png", La 1</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ESBC4100001NZ.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1321" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBC4100002AG_20221109T010944SQUARE.png_20221109010944.png", La 2</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ESBC4100002AG.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBC4100004J1_20230614T005926SQUARE.png_20230614005927.png", 24H</t>
+  </si>
+  <si>
+    <t>https://i.mjh.nz/SamsungTVPlus/ESBC4100004J1.m3u8</t>
   </si>
 </sst>
 </file>
@@ -760,7 +742,7 @@
   <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="B1" sqref="B1:B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -772,16 +754,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -789,13 +771,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -803,27 +785,23 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -831,13 +809,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -845,13 +823,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -859,13 +837,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -873,27 +851,27 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -901,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -915,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -929,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -943,13 +921,13 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -957,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -971,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -985,13 +963,13 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -999,13 +977,13 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1013,13 +991,13 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1027,13 +1005,13 @@
         <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1041,13 +1019,13 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1055,13 +1033,13 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1069,13 +1047,13 @@
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1083,13 +1061,13 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1097,13 +1075,13 @@
         <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1111,13 +1089,13 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1125,13 +1103,13 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1139,13 +1117,13 @@
         <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1153,13 +1131,13 @@
         <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1167,13 +1145,13 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1181,13 +1159,13 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1195,13 +1173,13 @@
         <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1209,13 +1187,13 @@
         <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1223,13 +1201,13 @@
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1237,13 +1215,13 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1251,13 +1229,13 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1265,13 +1243,13 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1279,13 +1257,13 @@
         <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1293,13 +1271,13 @@
         <v>42</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1307,13 +1285,13 @@
         <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1321,13 +1299,13 @@
         <v>44</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1335,13 +1313,13 @@
         <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1349,13 +1327,13 @@
         <v>46</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1363,13 +1341,13 @@
         <v>47</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1377,13 +1355,13 @@
         <v>48</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1391,13 +1369,13 @@
         <v>49</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1405,13 +1383,13 @@
         <v>50</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1419,13 +1397,13 @@
         <v>51</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1433,13 +1411,13 @@
         <v>52</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1447,13 +1425,13 @@
         <v>53</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1461,13 +1439,13 @@
         <v>54</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1475,13 +1453,13 @@
         <v>55</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1489,13 +1467,13 @@
         <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1503,13 +1481,13 @@
         <v>57</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1517,13 +1495,13 @@
         <v>58</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1531,13 +1509,13 @@
         <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1545,13 +1523,13 @@
         <v>60</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1559,13 +1537,13 @@
         <v>61</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1573,17 +1551,59 @@
         <v>62</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
-      <c r="B117" t="s">
-        <v>115</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="57">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
     <mergeCell ref="A112:A113"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A116:A117"/>
@@ -1593,55 +1613,9 @@
     <mergeCell ref="A100:A101"/>
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A106:A107"/>
     <mergeCell ref="A108:A109"/>
     <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DEPORTES.xlsx
+++ b/DEPORTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 GITHUB RESPALDO\PAPAPUMUKY1 GITHUB\PAPAPUMUKY1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C6A7F4-ACAD-4317-BB4E-3A9414276D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59363977-CD87-4F23-BEE3-2EEB70E14F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>#EXTM3U</t>
   </si>
@@ -248,12 +248,6 @@
     <t>https://live.field59.com/wapa/wapa2/playlist.m3u8</t>
   </si>
   <si>
-    <t>#EXTINF:0 type="stream" channelId="3802" group="Sports" logo="https://upload.wikimedia.org/wikipedia/commons/thumb/5/54/TyC_Sports_logo.svg/512px-TyC_Sports_logo.svg.png", TyC Sports</t>
-  </si>
-  <si>
-    <t>http://stream.flynetwifi.com:1935/live/mobile-005/playlist.m3u8</t>
-  </si>
-  <si>
     <t>#EXTINF:0 type="stream" channelId="-1" group="Sports" logo="https://i.imgur.com/D4mZ8ll.png", W14DK-D 14.5 All Sports Television Network</t>
   </si>
   <si>
@@ -365,7 +359,46 @@
     <t>#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBC4100004J1_20230614T005926SQUARE.png_20230614005927.png", 24H</t>
   </si>
   <si>
-    <t>https://i.mjh.nz/SamsungTVPlus/ESBC4100004J1.m3u8</t>
+    <t>#EXTINF:0 type="stream" channelId="1320" name="La 1" group="Generalistas" logo="https://pbs.twimg.com/profile_images/899385012801470464/akSvNCqE_200x200.jpg", La 1</t>
+  </si>
+  <si>
+    <t>https://dh6vo1bovy43s.cloudfront.net/v1/master/3722c60a815c199d9c0ef36c5b73da68a62b09d1/cc-x3gcl32l5ffq2/La_1_ES.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="1321" group="Documentary" logo="https://i.imgur.com/3NwzqoB.png", La 2 (1080p)</t>
+  </si>
+  <si>
+    <t>https://ztnr.rtve.es/ztnr/1688885.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="1322" group="Sports" logo="https://i.imgur.com/b0H5f62.png", Teledeporte (1080p) [Geo-blocked]</t>
+  </si>
+  <si>
+    <t>https://rtvelivestream.akamaized.net/rtvesec/tdp/tdp_main.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" name="RTVE 24H" group="News (ES)" logo="https://i.imgur.com/WTDKOoM.png", RTVE 24H</t>
+  </si>
+  <si>
+    <t>https://ztnr.rtve.es/ztnr/1694255.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="-1" name="TVG Eventos" group="Galicia" logo="https://graph.facebook.com/CRTVG/picture?width=200&amp;height=200", TVG Eventos</t>
+  </si>
+  <si>
+    <t>https://crtvg-events2.flumotion.cloud/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="favorites" channelId="4038" name="TVG 2" group="Galicia" logo="https://graph.facebook.com/CRTVG/picture?width=200&amp;height=200", TVG 2</t>
+  </si>
+  <si>
+    <t>https://crtvg-tvg2.flumotion.cloud/playlist.m3u8</t>
+  </si>
+  <si>
+    <t>#EXTINF:0 type="stream" channelId="-1" group="Chile" logo="https://i.imgur.com/61tSA6a.png", Claro Sports Chile</t>
+  </si>
+  <si>
+    <t>https://stitcher-ipv4.pluto.tv/v1/stitch/embed/hls/channel/6320d80a66666000086712d7livestitch/master.m3u8?deviceType=samsung-tvplus&amp;deviceMake=samsung&amp;deviceModel=samsung&amp;deviceVersion=unknown&amp;appVersion=unknown&amp;deviceLat=0&amp;deviceLon=0&amp;deviceDNT=%7BTARGETOPT%7D&amp;deviceId=%7BPSID%7D&amp;advertisingId=%7BPSID%7D&amp;us_privacy=1YNY&amp;samsung_app_domain=%7BAPP_DOMAIN%7D&amp;samsung_app_name=%7BAPP_NAME%7D&amp;profileLimit=&amp;profileFloor=&amp;embedPartner=samsung-tvplus&amp;profilesFromStream=true</t>
   </si>
 </sst>
 </file>
@@ -739,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE88F0A-9E4E-4E7F-A995-8D12451F325A}">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B116"/>
+      <selection activeCell="B1" sqref="B1:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -805,793 +838,805 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B94" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B104" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>62</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A82:A83"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A60:A61"/>
@@ -1604,18 +1649,34 @@
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
     <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DEPORTES.xlsx
+++ b/DEPORTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 GITHUB RESPALDO\PAPAPUMUKY1 GITHUB\PAPAPUMUKY1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59363977-CD87-4F23-BEE3-2EEB70E14F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0109056-A332-46E5-AA5A-54F181511188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6DEC76FE-12FE-4280-8109-88D0C28D8BEC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t>#EXTM3U</t>
   </si>
@@ -342,21 +342,6 @@
   </si>
   <si>
     <t>https://edge02.odtv.az/o1/ictimai/playlist.m3u8</t>
-  </si>
-  <si>
-    <t>#EXTINF:0 type="stream" channelId="1320" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBC4100001NZ_20221109T010943SQUARE.png_20221109010943.png", La 1</t>
-  </si>
-  <si>
-    <t>https://i.mjh.nz/SamsungTVPlus/ESBC4100001NZ.m3u8</t>
-  </si>
-  <si>
-    <t>#EXTINF:0 type="stream" channelId="1321" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBC4100002AG_20221109T010944SQUARE.png_20221109010944.png", La 2</t>
-  </si>
-  <si>
-    <t>https://i.mjh.nz/SamsungTVPlus/ESBC4100002AG.m3u8</t>
-  </si>
-  <si>
-    <t>#EXTINF:0 type="stream" channelId="-1" group="Spain" logo="https://tvpnlogopeu.samsungcloud.tv/platform/image/sourcelogo/vc/00/02/34/ESBC4100004J1_20230614T005926SQUARE.png_20230614005927.png", 24H</t>
   </si>
   <si>
     <t>#EXTINF:0 type="stream" channelId="1320" name="La 1" group="Generalistas" logo="https://pbs.twimg.com/profile_images/899385012801470464/akSvNCqE_200x200.jpg", La 1</t>
@@ -433,8 +418,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -772,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE88F0A-9E4E-4E7F-A995-8D12451F325A}">
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B122"/>
+      <selection activeCell="B1" sqref="B1:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -786,869 +774,708 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>4</v>
+      <c r="A2" s="2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>6</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>7</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>8</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>10</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>11</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>12</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>13</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2"/>
       <c r="B29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>14</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2"/>
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>15</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+      <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>16</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
+      <c r="A35" s="2"/>
       <c r="B35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>17</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+      <c r="A37" s="2"/>
       <c r="B37" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>18</v>
-      </c>
+      <c r="A38" s="2"/>
       <c r="B38" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
+      <c r="A39" s="2"/>
       <c r="B39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>19</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
+      <c r="A41" s="2"/>
       <c r="B41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>20</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="B42" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
+      <c r="A43" s="2"/>
       <c r="B43" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>21</v>
-      </c>
+      <c r="A44" s="2"/>
       <c r="B44" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
+      <c r="A45" s="2"/>
       <c r="B45" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>22</v>
-      </c>
+      <c r="A46" s="2"/>
       <c r="B46" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
+      <c r="A47" s="2"/>
       <c r="B47" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>23</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
+      <c r="A49" s="2"/>
       <c r="B49" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>24</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
+      <c r="A51" s="2"/>
       <c r="B51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>25</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>26</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>27</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>28</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
+      <c r="B65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>29</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+      <c r="B68" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>30</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+      <c r="B69" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
+      <c r="B70" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>31</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>36</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2"/>
+      <c r="B73" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-      <c r="B67" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>37</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="B75" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-      <c r="B69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>38</v>
-      </c>
-      <c r="B70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-      <c r="B71" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>39</v>
-      </c>
-      <c r="B72" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>40</v>
-      </c>
-      <c r="B74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-      <c r="B75" t="s">
-        <v>113</v>
-      </c>
-    </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>41</v>
-      </c>
+      <c r="A76" s="2"/>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
+      <c r="A77" s="2"/>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>42</v>
-      </c>
+      <c r="A78" s="2"/>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
+      <c r="A79" s="2"/>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>43</v>
-      </c>
+      <c r="A80" s="2"/>
       <c r="B80" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
+      <c r="A81" s="2"/>
       <c r="B81" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>44</v>
-      </c>
+      <c r="A82" s="2"/>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
+      <c r="A83" s="2"/>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>45</v>
-      </c>
+      <c r="A84" s="2"/>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
+      <c r="A85" s="2"/>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>46</v>
-      </c>
+      <c r="A86" s="2"/>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
+      <c r="A87" s="2"/>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>47</v>
-      </c>
+      <c r="A88" s="2"/>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
+      <c r="A89" s="2"/>
       <c r="B89" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>48</v>
-      </c>
+      <c r="A90" s="2"/>
       <c r="B90" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
+      <c r="A91" s="2"/>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>49</v>
-      </c>
+      <c r="A92" s="2"/>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
+      <c r="A93" s="2"/>
       <c r="B93" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>50</v>
-      </c>
+      <c r="A94" s="2"/>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
+      <c r="A95" s="2"/>
       <c r="B95" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>51</v>
-      </c>
+      <c r="A96" s="2"/>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
+      <c r="A97" s="2"/>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>52</v>
-      </c>
+      <c r="A98" s="2"/>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
+      <c r="A99" s="2"/>
       <c r="B99" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>53</v>
-      </c>
+      <c r="A100" s="2"/>
       <c r="B100" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
+      <c r="A101" s="2"/>
       <c r="B101" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>54</v>
-      </c>
+      <c r="A102" s="2"/>
       <c r="B102" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
+      <c r="A103" s="2"/>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>55</v>
-      </c>
+      <c r="A104" s="2"/>
       <c r="B104" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
+      <c r="A105" s="2"/>
       <c r="B105" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>56</v>
-      </c>
+      <c r="A106" s="2"/>
       <c r="B106" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
+      <c r="A107" s="2"/>
       <c r="B107" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <v>57</v>
-      </c>
+      <c r="A108" s="2"/>
       <c r="B108" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
+      <c r="A109" s="2"/>
       <c r="B109" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>58</v>
-      </c>
+      <c r="A110" s="1"/>
       <c r="B110" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="1"/>
       <c r="B111" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
-        <v>59</v>
-      </c>
       <c r="B112" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>60</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <v>61</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
-        <v>62</v>
-      </c>
-      <c r="B118" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="1"/>
-      <c r="B119" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
+  <mergeCells count="54">
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A4:A5"/>
@@ -1665,18 +1492,34 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
     <mergeCell ref="A88:A89"/>
     <mergeCell ref="A90:A91"/>
     <mergeCell ref="A92:A93"/>
     <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
